--- a/doc/接口文档.xlsx
+++ b/doc/接口文档.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -80,10 +80,6 @@
   </si>
   <si>
     <t>get_topshop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取影响力排名前9的店铺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -362,6 +358,10 @@
     "category_id" : "", //必填 店铺所属分类ID
     "range" : "", //必填 搜索范围 1：附近1公里，2整个城市
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取影响力排名前9的店铺(score)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,7 +501,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -543,7 +543,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -578,7 +578,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -789,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -819,7 +819,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.15">
@@ -859,141 +859,141 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
